--- a/file/BD信息表.xlsx
+++ b/file/BD信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BD格式" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <t>赵昭</t>
   </si>
   <si>
-    <t>58d1ecade841a18ba5399026；58d1ecade841a18ba5399027；58d1ecade841a18ba5399028</t>
+    <t>58d1ecade841a18ba5399026,58d1ecade841a18ba5399027,58d1ecade841a18ba5399028</t>
   </si>
   <si>
     <t>york.zhao@ye-dian.com</t>
@@ -149,11 +149,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m\-d"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m\-d"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -186,33 +186,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +215,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -239,7 +239,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,9 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,18 +315,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,30 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +346,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,79 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,49 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,25 +472,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +537,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +584,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,45 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -628,160 +637,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1125,7 +1125,7 @@
     <col min="5" max="5" width="38.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="12.75" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="12.75" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="12.75" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" ht="12.75" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
